--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Comisiones.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Comisiones.xlsx
@@ -65,10 +65,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>HIGAL III ETAPA I</t>
-  </si>
-  <si>
-    <t>31/08/2023</t>
+    <t>ALTOS DE SAN ROQUE III</t>
+  </si>
+  <si>
+    <t>01/09/2023</t>
   </si>
   <si>
     <t>Crédito</t>
@@ -77,7 +77,7 @@
     <t>15500.00</t>
   </si>
   <si>
-    <t>620.00</t>
+    <t>775.00</t>
   </si>
   <si>
     <t>155.00</t>
@@ -102,7 +102,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="13.0"/>
+      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,7 +145,9 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" wrapText="true"/>
     </xf>
@@ -164,15 +166,15 @@
     <col min="1" max="1" width="26.125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.88671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="28.3203125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="6.359375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.31640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.765625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.9921875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.37890625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="23.13671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="10.9921875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="9.20703125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="21.22265625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="26.2734375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="27.01171875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="17.95703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="22.23046875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="22.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
